--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_4_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_4_38.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3804485.924411072</v>
+        <v>3822860.613877191</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800619</v>
+        <v>2264668.837800618</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>682213.8818051495</v>
+        <v>682213.8818051491</v>
       </c>
     </row>
     <row r="9">
@@ -662,16 +662,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>23.80555003861566</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -710,22 +710,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>272.5437613321748</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -826,16 +826,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>29.41204342723559</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>195.5259221771827</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,7 +908,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>280.1033070984082</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>143.023227928772</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>126.5499088748948</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1069,13 +1069,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>28.89264992377371</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1145,10 +1145,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>78.41298629754827</v>
+        <v>270.7773459850746</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1348,16 +1348,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>27.00879565572128</v>
       </c>
       <c r="X10" t="n">
-        <v>38.53391084293067</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527407</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385018</v>
       </c>
       <c r="U11" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="12">
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1540,13 +1540,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>111.8652689647489</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>265.1760004670414</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274083</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385018</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498009</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="15">
@@ -1771,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1895,7 +1895,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -2053,7 +2053,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>139.1537278750038</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2078,28 +2078,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,16 +2129,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385018</v>
       </c>
       <c r="U20" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498009</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701341</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="21">
@@ -2239,25 +2239,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>82.95263755382967</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,13 +2290,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>118.4898845065119</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2524,13 +2524,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>115.5269768002178</v>
+        <v>183.1796758467</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896906</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527407</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,16 +2603,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385018</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0785952498018</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2621,7 +2621,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="27">
@@ -2710,13 +2710,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>113.1578721736026</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2770,16 +2770,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>27.37255160319397</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2950,25 +2950,25 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C31" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898727</v>
       </c>
       <c r="D31" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857179</v>
       </c>
       <c r="E31" t="n">
-        <v>78.30207251692855</v>
+        <v>78.3020725169286</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329068</v>
       </c>
       <c r="G31" t="n">
-        <v>98.36167833373607</v>
+        <v>98.36167833373703</v>
       </c>
       <c r="H31" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789556</v>
       </c>
       <c r="I31" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533462955</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415218</v>
+        <v>41.83246227415223</v>
       </c>
       <c r="S31" t="n">
-        <v>129.7889198539626</v>
+        <v>129.7889198539627</v>
       </c>
       <c r="T31" t="n">
-        <v>153.4156709287486</v>
+        <v>153.4156709287487</v>
       </c>
       <c r="U31" t="n">
-        <v>218.1054622689367</v>
+        <v>218.1054622689368</v>
       </c>
       <c r="V31" t="n">
         <v>184.0057531941874</v>
@@ -3013,7 +3013,7 @@
         <v>218.3911082069504</v>
       </c>
       <c r="X31" t="n">
-        <v>157.5777652593965</v>
+        <v>157.5777652593966</v>
       </c>
       <c r="Y31" t="n">
         <v>150.4527632224542</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898721</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G34" t="n">
         <v>98.36167833373696</v>
       </c>
       <c r="H34" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463137</v>
+        <v>42.28735533463054</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415218</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S34" t="n">
-        <v>129.7889198539622</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T34" t="n">
         <v>153.4156709287486</v>
       </c>
       <c r="U34" t="n">
-        <v>218.1054622689379</v>
+        <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
         <v>184.0057531941874</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898721</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692734</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373698</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H37" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463135</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415218</v>
+        <v>41.83246227415164</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3478,7 +3478,7 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U37" t="n">
-        <v>218.1054622689367</v>
+        <v>218.1054622689368</v>
       </c>
       <c r="V37" t="n">
         <v>184.0057531941874</v>
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417121</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>411.9645167896915</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898721</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373607</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H40" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463051</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415218</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505273872</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898727</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857179</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692855</v>
+        <v>78.3020725169286</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329068</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373607</v>
+        <v>98.36167833373703</v>
       </c>
       <c r="H43" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789556</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533462956</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415218</v>
+        <v>41.83246227415223</v>
       </c>
       <c r="S43" t="n">
-        <v>129.7889198539626</v>
+        <v>129.7889198539627</v>
       </c>
       <c r="T43" t="n">
-        <v>153.4156709287486</v>
+        <v>153.4156709287487</v>
       </c>
       <c r="U43" t="n">
-        <v>218.1054622689367</v>
+        <v>218.1054622689368</v>
       </c>
       <c r="V43" t="n">
         <v>184.0057531941874</v>
@@ -3961,7 +3961,7 @@
         <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
-        <v>157.5777652593965</v>
+        <v>157.5777652593966</v>
       </c>
       <c r="Y43" t="n">
         <v>150.4527632224542</v>
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H44" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527407</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,16 +4025,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T44" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385018</v>
       </c>
       <c r="U44" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952497999</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4043,7 +4043,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="45">
@@ -4141,13 +4141,13 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>137.9838098727421</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4189,16 +4189,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>203.8435192151917</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1210.087414675782</v>
+        <v>1215.881273373638</v>
       </c>
       <c r="C2" t="n">
-        <v>1210.087414675782</v>
+        <v>1215.881273373638</v>
       </c>
       <c r="D2" t="n">
-        <v>1210.087414675782</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="E2" t="n">
-        <v>1210.087414675782</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G2" t="n">
         <v>381.1377017843616</v>
@@ -4328,13 +4328,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4358,22 +4358,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.514423990285</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2224.752638628377</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V2" t="n">
-        <v>2224.752638628377</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W2" t="n">
-        <v>1871.983983358263</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="X2" t="n">
-        <v>1871.983983358263</v>
+        <v>1992.620445413572</v>
       </c>
       <c r="Y2" t="n">
-        <v>1596.687254739904</v>
+        <v>1602.48111343776</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4410,28 +4410,28 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>200.8329293182748</v>
+        <v>252.6519168570175</v>
       </c>
       <c r="C4" t="n">
-        <v>200.8329293182748</v>
+        <v>252.6519168570175</v>
       </c>
       <c r="D4" t="n">
-        <v>200.8329293182748</v>
+        <v>252.6519168570175</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>252.6519168570175</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>252.6519168570175</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>83.6521165953499</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>83.6521165953499</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>382.4813941485145</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>382.4813941485145</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>382.4813941485145</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>382.4813941485145</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="W4" t="n">
-        <v>382.4813941485145</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="X4" t="n">
-        <v>382.4813941485145</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="Y4" t="n">
-        <v>382.4813941485145</v>
+        <v>252.6519168570175</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1491.915471247702</v>
+        <v>1637.643464250441</v>
       </c>
       <c r="C5" t="n">
-        <v>1491.915471247702</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D5" t="n">
-        <v>1133.649772640952</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E5" t="n">
-        <v>747.8615200427075</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
-        <v>336.8756152531</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
         <v>53.94298182036445</v>
@@ -4565,7 +4565,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2321.475006864126</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>1990.412119520555</v>
       </c>
       <c r="W5" t="n">
-        <v>2642.120401548716</v>
+        <v>1637.643464250441</v>
       </c>
       <c r="X5" t="n">
-        <v>2268.654643287636</v>
+        <v>1637.643464250441</v>
       </c>
       <c r="Y5" t="n">
-        <v>1878.515311311824</v>
+        <v>1637.643464250441</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424003</v>
@@ -4644,22 +4644,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>546.4805193761947</v>
+        <v>257.3478788207</v>
       </c>
       <c r="C7" t="n">
-        <v>377.5443364482878</v>
+        <v>257.3478788207</v>
       </c>
       <c r="D7" t="n">
-        <v>227.4276970359521</v>
+        <v>257.3478788207</v>
       </c>
       <c r="E7" t="n">
-        <v>99.5995062532301</v>
+        <v>257.3478788207</v>
       </c>
       <c r="F7" t="n">
-        <v>99.5995062532301</v>
+        <v>257.3478788207</v>
       </c>
       <c r="G7" t="n">
-        <v>99.5995062532301</v>
+        <v>257.3478788207</v>
       </c>
       <c r="H7" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.9444893339355</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>484.6560661520982</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>257.3478788207</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>257.3478788207</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>257.3478788207</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>257.3478788207</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>257.3478788207</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064344</v>
+        <v>257.3478788207</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1954.141365880777</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>1954.141365880777</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>1595.875667274027</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>1210.087414675782</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.961649073313</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4820,10 +4820,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
@@ -4832,22 +4832,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520779</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2423.485734520779</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2423.485734520779</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W8" t="n">
-        <v>2423.485734520779</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X8" t="n">
-        <v>2344.280697856589</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y8" t="n">
-        <v>1954.141365880777</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4878,46 +4878,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>257.3478788207</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="C10" t="n">
-        <v>257.3478788207</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="D10" t="n">
-        <v>257.3478788207</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="E10" t="n">
-        <v>257.3478788207</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="F10" t="n">
-        <v>257.3478788207</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G10" t="n">
-        <v>257.3478788207</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4984,28 +4984,28 @@
         <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600564</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600564</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600564</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600564</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600564</v>
+        <v>295.8809182883535</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600564</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="X10" t="n">
-        <v>659.7889227944698</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="Y10" t="n">
-        <v>438.9963436509397</v>
+        <v>268.5993065148977</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
@@ -5039,52 +5039,52 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>696.2811958984813</v>
+        <v>379.1484955647068</v>
       </c>
       <c r="C13" t="n">
-        <v>527.3450129705744</v>
+        <v>210.2123126367999</v>
       </c>
       <c r="D13" t="n">
-        <v>527.3450129705744</v>
+        <v>210.2123126367999</v>
       </c>
       <c r="E13" t="n">
-        <v>527.3450129705744</v>
+        <v>210.2123126367999</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>210.2123126367999</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>964.1357418247858</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U13" t="n">
-        <v>696.2811958984813</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V13" t="n">
-        <v>696.2811958984813</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="W13" t="n">
-        <v>696.2811958984813</v>
+        <v>1009.579090436494</v>
       </c>
       <c r="X13" t="n">
-        <v>696.2811958984813</v>
+        <v>781.5895395384766</v>
       </c>
       <c r="Y13" t="n">
-        <v>696.2811958984813</v>
+        <v>560.7969603949465</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
         <v>1701.09316900344</v>
@@ -5273,34 +5273,34 @@
         <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231264</v>
@@ -5309,16 +5309,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5352,13 +5352,13 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>412.6079778147081</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L15" t="n">
         <v>891.4406401619858</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5461,25 +5461,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1382.222354598087</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>869.3083006011507</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V16" t="n">
-        <v>614.6238123952638</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5498,49 +5498,49 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
@@ -5549,16 +5549,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C18" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D18" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E18" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>2500.819361250803</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>2649.889045452863</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L18" t="n">
-        <v>3118.091695702839</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M18" t="n">
-        <v>3425.411828982801</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N18" t="n">
-        <v>3755.274456646834</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O18" t="n">
-        <v>4034.814521865531</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P18" t="n">
-        <v>4555.115143601278</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
-        <v>4850.224560916992</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S18" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T18" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U18" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V18" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W18" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X18" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y18" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="19">
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5701,22 +5701,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805468</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690732</v>
       </c>
       <c r="C21" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409605</v>
       </c>
       <c r="D21" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748354</v>
       </c>
       <c r="E21" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742898</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769783</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373968</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805656</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.49815909844</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>2375.989236263797</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>2525.058920465857</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>2771.824048372321</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>3484.747546292011</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>4289.159124556161</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>4568.699189774858</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>4773.721670557068</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="R21" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S21" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098066</v>
       </c>
       <c r="T21" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021844</v>
       </c>
       <c r="U21" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641231</v>
       </c>
       <c r="V21" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409488</v>
       </c>
       <c r="W21" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681287</v>
       </c>
       <c r="X21" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475754</v>
       </c>
       <c r="Y21" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.9276637108</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3459.155393916676</v>
+        <v>757.7241344124302</v>
       </c>
       <c r="C22" t="n">
-        <v>3459.155393916676</v>
+        <v>673.9335914287639</v>
       </c>
       <c r="D22" t="n">
-        <v>3459.155393916676</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="E22" t="n">
-        <v>3459.155393916676</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="F22" t="n">
-        <v>3459.155393916676</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G22" t="n">
-        <v>3459.155393916676</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H22" t="n">
-        <v>3459.155393916676</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>4741.167820987513</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U22" t="n">
-        <v>4452.039182201071</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V22" t="n">
-        <v>4197.354693995184</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="W22" t="n">
-        <v>3907.937523958223</v>
+        <v>985.7136853104475</v>
       </c>
       <c r="X22" t="n">
-        <v>3679.947973060206</v>
+        <v>757.7241344124302</v>
       </c>
       <c r="Y22" t="n">
-        <v>3459.155393916676</v>
+        <v>757.7241344124302</v>
       </c>
     </row>
     <row r="23">
@@ -5999,16 +5999,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6066,25 +6066,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6172,22 +6172,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1382.222354598086</v>
+        <v>1313.886294955175</v>
       </c>
       <c r="T25" t="n">
-        <v>1158.436939387592</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011506</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952637</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y25" t="n">
         <v>97.21709146028584</v>
@@ -6203,31 +6203,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
@@ -6239,34 +6239,34 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6300,28 +6300,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>485.5200852635878</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,10 +6358,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>506.3210135240263</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C28" t="n">
-        <v>506.3210135240263</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D28" t="n">
         <v>392.0201325405893</v>
@@ -6370,16 +6370,16 @@
         <v>244.1070389581962</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6418,16 +6418,16 @@
         <v>1209.787631771461</v>
       </c>
       <c r="V28" t="n">
-        <v>955.1031435655738</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W28" t="n">
-        <v>955.1031435655738</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="X28" t="n">
-        <v>727.1135926675564</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="Y28" t="n">
-        <v>506.3210135240263</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
         <v>1701.09316900344</v>
@@ -6449,22 +6449,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6479,31 +6479,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6528,34 +6528,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J30" t="n">
         <v>138.7081686256434</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>485.5200852635878</v>
       </c>
       <c r="L30" t="n">
-        <v>563.7235867775518</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M30" t="n">
-        <v>1332.091733170013</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N30" t="n">
-        <v>1661.954360834046</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P30" t="n">
         <v>2536.440602918915</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108317</v>
       </c>
       <c r="C31" t="n">
-        <v>559.3441472229665</v>
+        <v>559.3441472229658</v>
       </c>
       <c r="D31" t="n">
-        <v>478.0475988506718</v>
+        <v>478.0475988506711</v>
       </c>
       <c r="E31" t="n">
-        <v>398.9545963083198</v>
+        <v>398.954596308319</v>
       </c>
       <c r="F31" t="n">
-        <v>320.8847398504504</v>
+        <v>320.8847398504496</v>
       </c>
       <c r="G31" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103112</v>
       </c>
       <c r="H31" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982955</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J31" t="n">
         <v>177.0503551525399</v>
       </c>
       <c r="K31" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254954</v>
       </c>
       <c r="L31" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M31" t="n">
         <v>1048.866260860496</v>
@@ -6643,13 +6643,13 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R31" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S31" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942115</v>
       </c>
       <c r="T31" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771662</v>
       </c>
       <c r="U31" t="n">
         <v>1489.892037025262</v>
@@ -6661,10 +6661,10 @@
         <v>1083.430560862496</v>
       </c>
       <c r="X31" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045196</v>
       </c>
       <c r="Y31" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010304</v>
       </c>
     </row>
     <row r="32">
@@ -6689,19 +6689,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6722,7 +6722,7 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6774,25 +6774,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>485.5200852635878</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341674</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M33" t="n">
-        <v>1247.466478653857</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P33" t="n">
         <v>2536.440602918915</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3481.793971740468</v>
+        <v>659.4602391108324</v>
       </c>
       <c r="C34" t="n">
-        <v>3381.677879852602</v>
+        <v>559.3441472229665</v>
       </c>
       <c r="D34" t="n">
-        <v>3300.381331480307</v>
+        <v>478.0475988506719</v>
       </c>
       <c r="E34" t="n">
-        <v>3221.288328937956</v>
+        <v>398.9545963083198</v>
       </c>
       <c r="F34" t="n">
-        <v>3143.218472480086</v>
+        <v>320.8847398504505</v>
       </c>
       <c r="G34" t="n">
-        <v>3043.863241839948</v>
+        <v>221.5295092103121</v>
       </c>
       <c r="H34" t="n">
-        <v>2962.265324427932</v>
+        <v>139.9315917982965</v>
       </c>
       <c r="I34" t="n">
-        <v>2919.550824089921</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>2999.384087782175</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
-        <v>3217.020063255131</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L34" t="n">
-        <v>3532.182679494605</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
-        <v>3871.199993490131</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N34" t="n">
-        <v>4209.194673746024</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O34" t="n">
-        <v>4510.520222979765</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P34" t="n">
-        <v>4754.570558813792</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014292</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
-        <v>4818.599560616159</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>4687.499641571752</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T34" t="n">
-        <v>4532.5343174013</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>4312.225769654898</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>4126.361372489052</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
-        <v>3905.764293492132</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X34" t="n">
-        <v>3746.594833634156</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y34" t="n">
-        <v>3594.622345530667</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="35">
@@ -6911,40 +6911,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G35" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
         <v>3183.709822619127</v>
@@ -6956,31 +6956,31 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7002,40 +7002,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571608</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636248</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3481.793971740468</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C37" t="n">
-        <v>3381.677879852602</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D37" t="n">
-        <v>3300.381331480308</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E37" t="n">
-        <v>3221.288328937957</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F37" t="n">
-        <v>3143.218472480088</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G37" t="n">
-        <v>3043.863241839949</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H37" t="n">
-        <v>2962.265324427934</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>2919.550824089922</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>2999.384087782176</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>3217.020063255132</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L37" t="n">
-        <v>3532.182679494606</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
-        <v>3871.199993490132</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N37" t="n">
-        <v>4209.194673746024</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O37" t="n">
-        <v>4510.520222979765</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P37" t="n">
-        <v>4754.570558813792</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014291</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>4818.599560616158</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
-        <v>4687.499641571751</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T37" t="n">
-        <v>4532.534317401299</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>4312.225769654898</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>4126.361372489052</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
-        <v>3905.764293492132</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>3746.594833634156</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y37" t="n">
-        <v>3594.622345530667</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822463</v>
@@ -7172,52 +7172,52 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7251,25 +7251,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7312,19 +7312,19 @@
         <v>559.3441472229665</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506718</v>
+        <v>478.0475988506719</v>
       </c>
       <c r="E40" t="n">
         <v>398.9545963083198</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504504</v>
+        <v>320.8847398504505</v>
       </c>
       <c r="G40" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103121</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982965</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028587</v>
@@ -7385,34 +7385,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550601</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610189</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405194</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155868</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805449</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822441</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7433,28 +7433,28 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231262</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141866</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465299</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851614</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590534</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614723</v>
       </c>
     </row>
     <row r="42">
@@ -7476,34 +7476,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L42" t="n">
-        <v>563.7235867775518</v>
+        <v>1288.325632214049</v>
       </c>
       <c r="M42" t="n">
-        <v>1332.091733170013</v>
+        <v>1595.645765494011</v>
       </c>
       <c r="N42" t="n">
-        <v>1661.954360834046</v>
+        <v>1925.508393158044</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>2205.048458376741</v>
       </c>
       <c r="P42" t="n">
         <v>2536.440602918915</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108317</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229665</v>
+        <v>559.3441472229658</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506718</v>
+        <v>478.0475988506711</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083198</v>
+        <v>398.954596308319</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504504</v>
+        <v>320.8847398504496</v>
       </c>
       <c r="G43" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103112</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982955</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254954</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7591,13 +7591,13 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942115</v>
       </c>
       <c r="T43" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771662</v>
       </c>
       <c r="U43" t="n">
         <v>1489.892037025262</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862496</v>
       </c>
       <c r="X43" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045196</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010304</v>
       </c>
     </row>
     <row r="44">
@@ -7625,7 +7625,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
         <v>1701.09316900344</v>
@@ -7637,19 +7637,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7667,28 +7667,28 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7722,16 +7722,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K45" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341674</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M45" t="n">
         <v>1247.466478653857</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028587</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028587</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028587</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028587</v>
+        <v>383.4846246882387</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028587</v>
+        <v>236.5946771903283</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7837,19 +7837,19 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011507</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952638</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028587</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028587</v>
+        <v>531.3977182706318</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8304,13 +8304,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992665</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8547,7 +8547,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>275.0442842992664</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8711,7 +8711,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8927,7 +8927,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711659</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
@@ -9003,13 +9003,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>234.4116509503169</v>
+        <v>96.03744927814716</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9170,7 +9170,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
@@ -9240,13 +9240,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>223.6742649934471</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9258,13 +9258,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>253.7371603504743</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9477,31 +9477,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>409.7003683229575</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,13 +9714,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9732,10 +9732,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>253.7371603504743</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445218</v>
@@ -9954,10 +9954,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>73.64859338270685</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9969,10 +9969,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445218</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298203</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10191,22 +10191,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>199.7396287231157</v>
       </c>
       <c r="L30" t="n">
-        <v>29.47535963978231</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10428,22 +10428,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>199.7396287231157</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>409.7003683229581</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -10592,7 +10592,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928318</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10604,7 +10604,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599068</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10665,7 +10665,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>234.4116509503169</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,13 +10899,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10914,13 +10914,13 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>253.737160350474</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>34.78428385445218</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298111</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,25 +11136,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>29.47535963978225</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>127.6461250100655</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11382,7 +11382,7 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>409.7003683229581</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>54.62829949862872</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>21.06135193153591</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23659,7 +23659,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>30.90698584635157</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23701,7 +23701,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>82.39383318338567</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23941,7 +23941,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24127,25 +24127,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>84.29418354479816</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,13 +24178,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>103.0576765518774</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24412,13 +24412,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>82.39383318338545</v>
+        <v>14.74113413690324</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,13 +24598,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>35.45760084460976</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24658,16 +24658,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>191.2121017489008</v>
       </c>
     </row>
     <row r="29">
@@ -24850,7 +24850,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -25318,7 +25318,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>1.20792265079217e-12</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25561,7 +25561,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25798,7 +25798,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -26029,13 +26029,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>28.50975859063553</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26077,16 +26077,16 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>654162.2474420607</v>
+        <v>654162.2474420608</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>654162.247442061</v>
+        <v>654162.2474420608</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>685349.1677531534</v>
+        <v>685349.1677531535</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>685349.1677531535</v>
+        <v>685349.1677531534</v>
       </c>
     </row>
     <row r="16">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.6813710692</v>
+        <v>779989.6813710688</v>
       </c>
       <c r="C2" t="n">
         <v>779989.6813710689</v>
       </c>
       <c r="D2" t="n">
-        <v>779989.681371069</v>
+        <v>779989.6813710688</v>
       </c>
       <c r="E2" t="n">
-        <v>742955.2135016471</v>
+        <v>742955.2135016469</v>
       </c>
       <c r="F2" t="n">
-        <v>742955.2135016472</v>
+        <v>742955.213501647</v>
       </c>
       <c r="G2" t="n">
-        <v>742955.2135016472</v>
+        <v>742955.2135016473</v>
       </c>
       <c r="H2" t="n">
-        <v>742955.2135016472</v>
+        <v>742955.213501647</v>
       </c>
       <c r="I2" t="n">
-        <v>742955.2135016471</v>
+        <v>742955.2135016473</v>
       </c>
       <c r="J2" t="n">
-        <v>742955.213501647</v>
+        <v>742955.2135016468</v>
       </c>
       <c r="K2" t="n">
+        <v>779989.6813710692</v>
+      </c>
+      <c r="L2" t="n">
+        <v>779989.6813710693</v>
+      </c>
+      <c r="M2" t="n">
         <v>779989.6813710696</v>
-      </c>
-      <c r="L2" t="n">
-        <v>779989.6813710695</v>
-      </c>
-      <c r="M2" t="n">
-        <v>779989.6813710695</v>
       </c>
       <c r="N2" t="n">
         <v>779989.6813710696</v>
       </c>
       <c r="O2" t="n">
-        <v>779989.6813710696</v>
+        <v>779989.6813710695</v>
       </c>
       <c r="P2" t="n">
         <v>742955.213501647</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,16 +26390,16 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>54505.5121037125</v>
+        <v>54505.5121037124</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.015233837</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
-        <v>1.11379904410569e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>177019.0984852685</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="C4" t="n">
-        <v>177019.0984852685</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="D4" t="n">
-        <v>177019.0984852684</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="E4" t="n">
-        <v>31338.36479029927</v>
+        <v>29303.54555230238</v>
       </c>
       <c r="F4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230237</v>
       </c>
       <c r="G4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230234</v>
       </c>
       <c r="H4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230237</v>
       </c>
       <c r="I4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="J4" t="n">
-        <v>31338.36479029917</v>
+        <v>29303.54555230238</v>
       </c>
       <c r="K4" t="n">
-        <v>53757.15203161968</v>
+        <v>51722.33279362278</v>
       </c>
       <c r="L4" t="n">
-        <v>53757.15203161968</v>
+        <v>51722.3327936228</v>
       </c>
       <c r="M4" t="n">
-        <v>53757.15203161968</v>
+        <v>51722.33279362282</v>
       </c>
       <c r="N4" t="n">
-        <v>53757.15203161969</v>
+        <v>51722.33279362281</v>
       </c>
       <c r="O4" t="n">
-        <v>53757.15203161969</v>
+        <v>51722.33279362286</v>
       </c>
       <c r="P4" t="n">
-        <v>31338.36479029923</v>
+        <v>29303.54555230237</v>
       </c>
     </row>
     <row r="5">
@@ -26473,43 +26473,43 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="G5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="G5" t="n">
-        <v>91987.32594871662</v>
-      </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
+        <v>97715.10582002536</v>
+      </c>
+      <c r="L5" t="n">
         <v>97715.10582002538</v>
       </c>
-      <c r="L5" t="n">
-        <v>97715.1058200254</v>
-      </c>
       <c r="M5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002535</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-69856.3743921532</v>
+        <v>-67328.05322871136</v>
       </c>
       <c r="C6" t="n">
-        <v>520111.504822391</v>
+        <v>522639.8259858333</v>
       </c>
       <c r="D6" t="n">
-        <v>520111.5048223911</v>
+        <v>522639.8259858332</v>
       </c>
       <c r="E6" t="n">
-        <v>94469.4862857352</v>
+        <v>96504.30552373175</v>
       </c>
       <c r="F6" t="n">
-        <v>619629.5227626314</v>
+        <v>621664.342000628</v>
       </c>
       <c r="G6" t="n">
-        <v>619629.5227626314</v>
+        <v>621664.3420006284</v>
       </c>
       <c r="H6" t="n">
-        <v>619629.5227626314</v>
+        <v>621664.3420006281</v>
       </c>
       <c r="I6" t="n">
-        <v>619629.5227626313</v>
+        <v>621664.3420006284</v>
       </c>
       <c r="J6" t="n">
-        <v>443206.3035700382</v>
+        <v>445241.1228080348</v>
       </c>
       <c r="K6" t="n">
-        <v>574011.911415712</v>
+        <v>576046.7306537087</v>
       </c>
       <c r="L6" t="n">
-        <v>628517.4235194244</v>
+        <v>630552.2427574212</v>
       </c>
       <c r="M6" t="n">
-        <v>493716.4082855874</v>
+        <v>495751.2275235842</v>
       </c>
       <c r="N6" t="n">
-        <v>628517.4235194244</v>
+        <v>630552.2427574215</v>
       </c>
       <c r="O6" t="n">
-        <v>628517.4235194245</v>
+        <v>630552.2427574215</v>
       </c>
       <c r="P6" t="n">
-        <v>619629.5227626312</v>
+        <v>621664.342000628</v>
       </c>
     </row>
   </sheetData>
@@ -26710,19 +26710,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964057</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964057</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170866</v>
-      </c>
-      <c r="C3" t="n">
-        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170867</v>
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.1318901296405</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990169</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.1318901296405</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,16 +27382,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>330.8774915820673</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>113.6941773238788</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27546,19 +27546,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>105.5535783651026</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>16.6196167728362</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27594,7 +27594,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,7 +27628,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>133.6808629223868</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>108.2009395795173</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,16 +27771,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>19.8840537716744</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27789,7 +27789,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
@@ -27819,13 +27819,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>117.7725420563841</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27865,10 +27865,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27904,7 +27904,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27916,7 +27916,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>291.3181143809207</v>
+        <v>98.95375469339439</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28023,10 +28023,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28068,16 +28068,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>259.5142026808697</v>
       </c>
       <c r="X10" t="n">
-        <v>187.1757445461065</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28138,7 +28138,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>1.335820343228988e-12</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964057</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964057</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964057</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964057</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964057</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964057</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964057</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964057</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964057</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964057</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964057</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964057</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964057</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964057</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964057</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964057</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964057</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964057</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964057</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964057</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964057</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964057</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964057</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964057</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964057</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964057</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964057</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964057</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964057</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964057</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964057</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964057</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964057</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964057</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964057</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964057</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964057</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964057</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964057</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964057</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964057</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964057</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964057</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964057</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964057</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964057</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964057</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964057</v>
       </c>
     </row>
     <row r="44">
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>296.2227415328939</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35267,7 +35267,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>296.2227415328939</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35647,7 +35647,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303341</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
@@ -35723,13 +35723,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>483.6693559063411</v>
+        <v>345.2951542341714</v>
       </c>
       <c r="M15" t="n">
         <v>310.4243770504662</v>
@@ -35890,7 +35890,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35960,13 +35960,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>472.9319699494714</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
         <v>310.4243770504662</v>
@@ -35978,13 +35978,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>460.8305752819989</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36127,7 +36127,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734237</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36364,7 +36364,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,13 +36434,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K24" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
         <v>310.4243770504662</v>
@@ -36452,10 +36452,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>460.8305752819989</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,10 +36674,10 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>224.2240319706461</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
         <v>310.4243770504662</v>
@@ -36689,10 +36689,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,22 +36911,22 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>350.3150673110549</v>
       </c>
       <c r="L30" t="n">
-        <v>278.7330645958066</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
         <v>88.0130327850741</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.63966029520614</v>
+        <v>80.63966029520608</v>
       </c>
       <c r="K31" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595511</v>
       </c>
       <c r="L31" t="n">
-        <v>318.3460770095692</v>
+        <v>318.3460770095691</v>
       </c>
       <c r="M31" t="n">
-        <v>342.4417313086132</v>
+        <v>342.441731308613</v>
       </c>
       <c r="N31" t="n">
         <v>341.4087679352442</v>
       </c>
       <c r="O31" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502434</v>
       </c>
       <c r="P31" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414413</v>
       </c>
       <c r="Q31" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015153</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,22 +37148,22 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>350.3150673110549</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
         <v>88.0130327850741</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520614</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37236,7 +37236,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
         <v>304.3692416502435</v>
@@ -37312,7 +37312,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221109</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37324,7 +37324,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502069</v>
       </c>
       <c r="R35" t="n">
         <v>59.82538970349808</v>
@@ -37385,7 +37385,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>384.9870895382561</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
@@ -37400,13 +37400,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520614</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37473,7 +37473,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
         <v>304.3692416502435</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K38" t="n">
         <v>528.689756130333</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,13 +37619,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
         <v>310.4243770504662</v>
@@ -37634,13 +37634,13 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>536.1008625915821</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520614</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37710,7 +37710,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
         <v>304.3692416502435</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,25 +37856,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>278.7330645958065</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>334.7395399415902</v>
       </c>
       <c r="Q42" t="n">
         <v>88.0130327850741</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520614</v>
+        <v>80.63966029520608</v>
       </c>
       <c r="K43" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595511</v>
       </c>
       <c r="L43" t="n">
-        <v>318.3460770095692</v>
+        <v>318.3460770095691</v>
       </c>
       <c r="M43" t="n">
-        <v>342.4417313086132</v>
+        <v>342.441731308613</v>
       </c>
       <c r="N43" t="n">
         <v>341.4087679352442</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502434</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414413</v>
       </c>
       <c r="Q43" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015153</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38102,7 +38102,7 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>720.1247453734243</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N45" t="n">
         <v>812.5369477415663</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_4_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_4_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3897959.39928932</v>
+        <v>3890942.38439761</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7674126.790167705</v>
+        <v>7674126.790167706</v>
       </c>
     </row>
     <row r="11">
@@ -664,7 +664,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -673,13 +673,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>276.7799377421434</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.6101255868925</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>59.66385641544559</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>56.88196987815806</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>96.17028886997895</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>177.7048348993197</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -946,19 +946,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1113,13 +1113,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>173.9313784350749</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>168.7756050755991</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1135,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>37.80714723456113</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>96.3616331761031</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>128.7835007017901</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1350,16 +1350,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>25.31590541686252</v>
       </c>
     </row>
     <row r="11">
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896907</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274063</v>
+        <v>81.77913505274121</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T12" t="n">
         <v>192.9654699154601</v>
@@ -1533,13 +1533,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>36.59669811656459</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>164.4379853673424</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1612,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,22 +1764,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -1818,16 +1818,16 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>40.00468064013106</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>174.3062600431772</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274067</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>183.1796758467005</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>190.4211316574327</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2253,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>34.55149341717764</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2301,13 +2301,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2478,25 +2478,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>79.12324787068584</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
     </row>
     <row r="26">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634814</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2712,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>279.0974192870275</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2952,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>9.19231730057146</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3198,16 +3198,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>40.62827478520958</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3283,10 +3283,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113179</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,10 +3438,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>102.895311794733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3508,7 +3508,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3666,13 +3666,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>4.888457790801712</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3726,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3897,16 +3897,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3951,19 +3951,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>206.806426921486</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>209.7723097876324</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3991,13 +3991,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H44" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274054</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051987</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4073,10 +4073,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H45" t="n">
-        <v>94.98542483262918</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014433</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T45" t="n">
         <v>192.9654699154601</v>
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037927</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>224.895256723152</v>
       </c>
       <c r="V46" t="n">
-        <v>136.873640107477</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1233.603060210037</v>
+        <v>1606.946621408918</v>
       </c>
       <c r="C2" t="n">
-        <v>864.6405432696254</v>
+        <v>1237.984104468507</v>
       </c>
       <c r="D2" t="n">
-        <v>864.6405432696254</v>
+        <v>879.7184058617563</v>
       </c>
       <c r="E2" t="n">
-        <v>478.8522906713811</v>
+        <v>493.9301532635121</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>486.9846525143086</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4372,10 +4372,10 @@
         <v>1993.54646147304</v>
       </c>
       <c r="X2" t="n">
-        <v>1620.202900274159</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="Y2" t="n">
-        <v>1620.202900274159</v>
+        <v>1993.54646147304</v>
       </c>
     </row>
     <row r="3">
@@ -4409,25 +4409,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>456.3840257941342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>456.3840257941342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>235.5914466506042</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1187.828354776384</v>
+        <v>609.3508327416157</v>
       </c>
       <c r="C5" t="n">
-        <v>818.8658378359718</v>
+        <v>240.388315801204</v>
       </c>
       <c r="D5" t="n">
-        <v>460.6001392292213</v>
+        <v>240.388315801204</v>
       </c>
       <c r="E5" t="n">
-        <v>74.81188663097703</v>
+        <v>240.388315801204</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>233.4428150520005</v>
       </c>
       <c r="G5" t="n">
         <v>53.94298182036445</v>
@@ -4567,19 +4567,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4594,25 +4594,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2302.336936304455</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2048.575150942547</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V5" t="n">
-        <v>2048.575150942547</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W5" t="n">
-        <v>2048.575150942547</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X5" t="n">
-        <v>1675.109392681467</v>
+        <v>1386.090004781549</v>
       </c>
       <c r="Y5" t="n">
-        <v>1284.970060705655</v>
+        <v>995.9506728057374</v>
       </c>
     </row>
     <row r="6">
@@ -4622,40 +4622,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036422</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.200144220494</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4667,22 +4667,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,13 +4701,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>370.7922583306645</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>513.8405610245969</v>
+        <v>552.4407231609042</v>
       </c>
       <c r="W7" t="n">
-        <v>224.4233909876363</v>
+        <v>552.4407231609042</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>552.4407231609042</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>552.4407231609042</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1074.547708327363</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>1036.358670716696</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>1036.358670716696</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4807,7 +4807,7 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
         <v>881.2824271224076</v>
@@ -4816,7 +4816,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2478.514423990285</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="U8" t="n">
-        <v>2224.752638628377</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="V8" t="n">
-        <v>2224.752638628377</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="W8" t="n">
-        <v>2224.752638628377</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="X8" t="n">
-        <v>1851.286880367297</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y8" t="n">
-        <v>1461.147548391485</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="9">
@@ -4889,19 +4889,19 @@
         <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,13 +4938,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>184.0273259635867</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>473.4444960005474</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>184.0273259635867</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>184.0273259635867</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>184.0273259635867</v>
+        <v>702.55736257324</v>
       </c>
     </row>
     <row r="11">
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805474</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822467</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795207</v>
@@ -5053,7 +5053,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5065,28 +5065,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5120,22 +5120,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701563</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L12" t="n">
-        <v>796.3635653766206</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M12" t="n">
-        <v>1124.115218311522</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N12" t="n">
-        <v>1453.977845975555</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O12" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P12" t="n">
         <v>2328.464088060424</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>303.1196361220964</v>
+        <v>822.6075462588844</v>
       </c>
       <c r="C13" t="n">
-        <v>134.1834531941895</v>
+        <v>653.6713633309776</v>
       </c>
       <c r="D13" t="n">
-        <v>134.1834531941895</v>
+        <v>503.5547239186418</v>
       </c>
       <c r="E13" t="n">
-        <v>134.1834531941895</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5226,25 +5226,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.210845262961</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U13" t="n">
-        <v>1075.210845262961</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V13" t="n">
-        <v>820.5263570570743</v>
+        <v>1332.817295439375</v>
       </c>
       <c r="W13" t="n">
-        <v>531.1091870201137</v>
+        <v>1043.400125402414</v>
       </c>
       <c r="X13" t="n">
-        <v>303.1196361220964</v>
+        <v>1043.400125402414</v>
       </c>
       <c r="Y13" t="n">
-        <v>303.1196361220964</v>
+        <v>822.6075462588844</v>
       </c>
     </row>
     <row r="14">
@@ -5257,70 +5257,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5345,13 +5345,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G15" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I15" t="n">
         <v>97.21709146028584</v>
@@ -5360,19 +5360,19 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341674</v>
+        <v>563.7235867775516</v>
       </c>
       <c r="M15" t="n">
-        <v>841.863114014129</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N15" t="n">
-        <v>1646.27469227828</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O15" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>656.1762782006411</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C16" t="n">
-        <v>656.1762782006411</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D16" t="n">
-        <v>506.0596387883054</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E16" t="n">
-        <v>506.0596387883054</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F16" t="n">
-        <v>359.1696912903951</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G16" t="n">
         <v>359.1696912903951</v>
@@ -5442,10 +5442,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U16" t="n">
-        <v>986.0022165609664</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V16" t="n">
-        <v>945.5934482376017</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="W16" t="n">
-        <v>656.1762782006411</v>
+        <v>1322.84934122136</v>
       </c>
       <c r="X16" t="n">
-        <v>656.1762782006411</v>
+        <v>1322.84934122136</v>
       </c>
       <c r="Y16" t="n">
-        <v>656.1762782006411</v>
+        <v>1322.84934122136</v>
       </c>
     </row>
     <row r="17">
@@ -5497,19 +5497,19 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
         <v>904.3190116155879</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805461</v>
+        <v>488.1932370805463</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
@@ -5527,16 +5527,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5582,13 +5582,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I18" t="n">
         <v>97.21709146028584</v>
@@ -5597,22 +5597,22 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L18" t="n">
-        <v>901.674922584592</v>
+        <v>901.6749225845922</v>
       </c>
       <c r="M18" t="n">
-        <v>1514.038914395485</v>
+        <v>1670.043068977054</v>
       </c>
       <c r="N18" t="n">
-        <v>1843.901542059518</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O18" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>528.105874218302</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5679,10 +5679,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1313.886294955175</v>
       </c>
       <c r="T19" t="n">
-        <v>1298.996260473455</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="U19" t="n">
-        <v>1009.867621687013</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V19" t="n">
-        <v>817.5230442552627</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W19" t="n">
-        <v>528.105874218302</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X19" t="n">
-        <v>528.105874218302</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y19" t="n">
-        <v>528.105874218302</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5737,16 +5737,16 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
@@ -5755,7 +5755,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5764,7 +5764,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5788,16 +5788,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5831,22 +5831,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>282.5355983135321</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>282.5355983135321</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>282.5355983135321</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>282.5355983135321</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>282.5355983135321</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
         <v>97.21709146028584</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>986.0022165609664</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V22" t="n">
-        <v>731.3177283550796</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W22" t="n">
-        <v>731.3177283550796</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X22" t="n">
-        <v>503.3281774570622</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>282.5355983135321</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5968,52 +5968,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514078</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231264</v>
@@ -6022,16 +6022,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6065,28 +6065,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1208.995055864554</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>1538.857683528586</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>1818.397748747283</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2338.698370483031</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>991.0842369787848</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C25" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1418.99379796125</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1219.073787876802</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1219.073787876802</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U25" t="n">
-        <v>1219.073787876802</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V25" t="n">
-        <v>1219.073787876802</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W25" t="n">
-        <v>1219.073787876802</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X25" t="n">
-        <v>991.0842369787848</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y25" t="n">
-        <v>991.0842369787848</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="26">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6211,25 +6211,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6244,34 +6244,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6302,25 +6302,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>592.8217113586345</v>
       </c>
       <c r="L27" t="n">
-        <v>891.4406401619856</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M27" t="n">
-        <v>1198.760773441947</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N27" t="n">
-        <v>1528.62340110598</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>414.0663679705859</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C28" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6390,10 +6390,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6408,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1387.841167119728</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T28" t="n">
-        <v>1387.841167119728</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>1105.924581981316</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V28" t="n">
-        <v>1105.924581981316</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W28" t="n">
-        <v>816.5074119443557</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>816.5074119443557</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y28" t="n">
-        <v>595.7148328008255</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="29">
@@ -6542,22 +6542,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>550.2226492899335</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>857.5427825698952</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O30" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P30" t="n">
         <v>2536.440602918915</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>416.5712828402495</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
         <v>97.21709146028584</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1164.055751909234</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>1164.055751909234</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>1154.770582918758</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>865.3534128817969</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>637.3638619837795</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>416.5712828402495</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6679,46 +6679,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6779,28 +6779,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>880.8106280646855</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1188.130761344647</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1517.99338900868</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>1797.533454227377</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028584</v>
@@ -6882,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1164.055751909234</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>1164.055751909234</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V34" t="n">
-        <v>1164.055751909234</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W34" t="n">
-        <v>1123.017090510032</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X34" t="n">
-        <v>895.0275396120149</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155891</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805472</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6955,34 +6955,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7013,28 +7013,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4096.801546389155</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>3927.865363461248</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>3777.748724048913</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>3777.748724048913</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>3777.748724048913</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>3609.573402368733</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>4756.919914635775</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>4756.919914635775</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>4533.134499425281</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>4533.134499425281</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>4278.450011219395</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>4278.450011219395</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>4278.450011219395</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>4278.450011219395</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7159,16 +7159,16 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
@@ -7177,16 +7177,16 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7256,25 +7256,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>1026.505047571597</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1503.408902298185</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1833.271529962218</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3761.099816979246</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>3761.099816979246</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>3610.98317756691</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>3610.98317756691</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>3464.093230069</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>3464.093230069</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>3464.093230069</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>4749.779469576118</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T40" t="n">
-        <v>4525.994054365623</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>4525.994054365623</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>4271.309566159736</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>3981.892396122776</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>3981.892396122776</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>3761.099816979246</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7399,10 +7399,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
@@ -7411,13 +7411,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7496,22 +7496,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>1288.32563221405</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1711.385417156675</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>2041.248044820708</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2320.788110039405</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,13 +7545,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
         <v>97.21709146028584</v>
@@ -7599,22 +7599,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1298.996260473455</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="U43" t="n">
-        <v>1298.996260473455</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V43" t="n">
-        <v>1087.105038465745</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W43" t="n">
-        <v>797.6878684287846</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X43" t="n">
-        <v>797.6878684287846</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y43" t="n">
-        <v>576.8952892852544</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7636,49 +7636,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823792</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514096</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795209</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.1647015151</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619132</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643329</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899133</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207836</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
         <v>4262.3578574653</v>
@@ -7712,40 +7712,40 @@
         <v>664.0438201101999</v>
       </c>
       <c r="E45" t="n">
-        <v>504.8063651047444</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316293</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358146</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675023</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256437</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>549.5984374701569</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>796.3635653766216</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M45" t="n">
-        <v>1406.737288300435</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N45" t="n">
-        <v>1736.599915964469</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O45" t="n">
-        <v>2016.139981183167</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918914</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7782,10 +7782,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
         <v>97.21709146028584</v>
@@ -7806,52 +7806,52 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241959</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688077</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799373</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471205</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
-        <v>1049.608084974669</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O46" t="n">
-        <v>1283.483062980066</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585749</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557905</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119731</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1187.921157035283</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>964.1357418247887</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>675.0071030383469</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V46" t="n">
-        <v>536.7509009095822</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W46" t="n">
-        <v>247.3337308726216</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X46" t="n">
-        <v>247.3337308726216</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y46" t="n">
-        <v>247.3337308726216</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142013</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8531,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>327.421860962789</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8777,22 +8777,22 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>20.63789864135339</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445213</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8941,7 +8941,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627438</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -9011,25 +9011,25 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>29.47535963978197</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>91.23759968302096</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9175,7 +9175,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119823</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
@@ -9184,7 +9184,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599049</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9251,22 +9251,22 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>308.1251096272033</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>52.49733361305221</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9488,7 +9488,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>96.03744927814699</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9646,7 +9646,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9716,13 +9716,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
-        <v>199.7396287231151</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,13 +9953,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>182.0340742867944</v>
       </c>
       <c r="L27" t="n">
-        <v>360.5026862907255</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9971,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10190,25 +10190,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>15.83804904622843</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>180.0237016735871</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,13 +10427,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>85.30006332127806</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10676,19 +10676,19 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>230.7151863772034</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10904,13 +10904,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>171.2966883299258</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11144,10 +11144,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>116.9087390531961</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987297522</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,16 +11375,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M45" t="n">
-        <v>306.1147370139914</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445199</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23421,13 +23421,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>108.8243499063666</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23436,7 +23436,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,25 +23466,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>87.69965795648557</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,22 +23652,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23706,16 +23706,16 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>212.1329626836969</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>112.2167382934138</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23892,7 +23892,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23907,10 +23907,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,25 +23940,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>14.74113413690279</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>61.71651166639535</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24141,10 +24141,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>131.9420750461999</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24177,7 +24177,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24189,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24366,25 +24366,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>30.84110453310694</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>103.0576765518772</v>
       </c>
     </row>
     <row r="26">
@@ -24600,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>7.139933111549851</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24840,7 +24840,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24855,7 +24855,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24885,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>242.9453260232565</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25086,16 +25086,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>245.8947235513814</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25326,10 +25326,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25359,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>7.069040609059797</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25554,13 +25554,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
@@ -25569,7 +25569,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>105.5307876734703</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25785,16 +25785,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25839,19 +25839,19 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>14.74113413690327</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>42.36533353619558</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26043,7 +26043,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>110.4192454642719</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>61.3420956754253</v>
       </c>
       <c r="V46" t="n">
-        <v>115.264003216351</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>654162.2474420608</v>
+        <v>654162.2474420607</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>654162.247442061</v>
+        <v>654162.2474420608</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>654162.2474420607</v>
+        <v>654162.2474420608</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>654162.2474420608</v>
+        <v>654162.2474420607</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>654162.247442061</v>
+        <v>654162.2474420608</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>654162.247442061</v>
+        <v>654162.2474420608</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>654162.247442061</v>
+        <v>654162.2474420608</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>654162.2474420607</v>
+        <v>654162.2474420608</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>654162.2474420608</v>
+        <v>654162.2474420607</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.681371069</v>
+        <v>779989.6813710688</v>
       </c>
       <c r="C2" t="n">
         <v>779989.6813710689</v>
       </c>
       <c r="D2" t="n">
-        <v>779989.6813710688</v>
+        <v>779989.681371069</v>
       </c>
       <c r="E2" t="n">
-        <v>742955.213501647</v>
+        <v>742955.2135016472</v>
       </c>
       <c r="F2" t="n">
-        <v>742955.2135016471</v>
+        <v>742955.2135016472</v>
       </c>
       <c r="G2" t="n">
-        <v>742955.2135016468</v>
+        <v>742955.2135016473</v>
       </c>
       <c r="H2" t="n">
-        <v>742955.2135016471</v>
+        <v>742955.2135016473</v>
       </c>
       <c r="I2" t="n">
         <v>742955.2135016471</v>
       </c>
       <c r="J2" t="n">
+        <v>742955.2135016471</v>
+      </c>
+      <c r="K2" t="n">
+        <v>742955.2135016473</v>
+      </c>
+      <c r="L2" t="n">
+        <v>742955.2135016473</v>
+      </c>
+      <c r="M2" t="n">
         <v>742955.2135016472</v>
-      </c>
-      <c r="K2" t="n">
-        <v>742955.2135016471</v>
-      </c>
-      <c r="L2" t="n">
-        <v>742955.213501647</v>
-      </c>
-      <c r="M2" t="n">
-        <v>742955.2135016473</v>
       </c>
       <c r="N2" t="n">
         <v>742955.213501647</v>
       </c>
       <c r="O2" t="n">
-        <v>742955.2135016472</v>
+        <v>742955.213501647</v>
       </c>
       <c r="P2" t="n">
-        <v>742955.213501647</v>
+        <v>742955.2135016471</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768966</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>9.080067684408276e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26426,28 +26426,28 @@
         <v>174490.7773218262</v>
       </c>
       <c r="E4" t="n">
-        <v>29303.54555230237</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="F4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230231</v>
       </c>
       <c r="G4" t="n">
-        <v>29303.54555230238</v>
+        <v>29303.54555230231</v>
       </c>
       <c r="H4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="I4" t="n">
+        <v>29303.54555230234</v>
+      </c>
+      <c r="J4" t="n">
+        <v>29303.54555230229</v>
+      </c>
+      <c r="K4" t="n">
         <v>29303.54555230233</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>29303.54555230233</v>
-      </c>
-      <c r="K4" t="n">
-        <v>29303.54555230232</v>
-      </c>
-      <c r="L4" t="n">
-        <v>29303.54555230232</v>
       </c>
       <c r="M4" t="n">
         <v>29303.54555230233</v>
@@ -26456,10 +26456,10 @@
         <v>29303.54555230233</v>
       </c>
       <c r="O4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="P4" t="n">
-        <v>29303.54555230225</v>
+        <v>29303.54555230233</v>
       </c>
     </row>
     <row r="5">
@@ -26487,7 +26487,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
@@ -26499,10 +26499,10 @@
         <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871664</v>
@@ -26511,7 +26511,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-67328.05322871104</v>
+        <v>-67328.05322871136</v>
       </c>
       <c r="C6" t="n">
         <v>522639.8259858333</v>
       </c>
       <c r="D6" t="n">
-        <v>522639.8259858332</v>
+        <v>522639.8259858334</v>
       </c>
       <c r="E6" t="n">
-        <v>96504.30552373137</v>
+        <v>95529.71426401049</v>
       </c>
       <c r="F6" t="n">
-        <v>621664.3420006284</v>
+        <v>620689.7507409067</v>
       </c>
       <c r="G6" t="n">
-        <v>621664.3420006278</v>
+        <v>620689.7507409068</v>
       </c>
       <c r="H6" t="n">
-        <v>621664.3420006281</v>
+        <v>620689.7507409069</v>
       </c>
       <c r="I6" t="n">
-        <v>621664.3420006281</v>
+        <v>620689.7507409065</v>
       </c>
       <c r="J6" t="n">
-        <v>445241.1228080352</v>
+        <v>444266.5315483136</v>
       </c>
       <c r="K6" t="n">
-        <v>621664.3420006282</v>
+        <v>620689.7507409067</v>
       </c>
       <c r="L6" t="n">
-        <v>621664.3420006281</v>
+        <v>620689.7507409067</v>
       </c>
       <c r="M6" t="n">
-        <v>486863.3267667913</v>
+        <v>485888.7355070694</v>
       </c>
       <c r="N6" t="n">
-        <v>621664.3420006281</v>
+        <v>620689.7507409065</v>
       </c>
       <c r="O6" t="n">
-        <v>621664.3420006284</v>
+        <v>620689.7507409065</v>
       </c>
       <c r="P6" t="n">
-        <v>621664.3420006272</v>
+        <v>620689.7507409065</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26737,28 +26737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541003</v>
@@ -26767,10 +26767,10 @@
         <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
         <v>830.3824054541003</v>
@@ -26779,7 +26779,7 @@
         <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541017</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370141</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27384,7 +27384,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27393,13 +27393,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>137.0042322786516</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27444,7 +27444,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0.1209750915764971</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27536,22 +27536,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>107.5829646831822</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,10 +27584,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27599,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>229.6410284584329</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,22 +27615,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>286.5635527935016</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>236.0793351214753</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27663,22 +27663,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27773,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,13 +27818,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27833,13 +27833,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>78.20626488875308</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>56.93405031343804</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27855,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>327.4657445364464</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,16 +27900,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>120.0866871815547</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27918,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>38.46332039683776</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28070,16 +28070,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>193.2687479352323</v>
       </c>
     </row>
     <row r="11">
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28392,7 +28392,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -28563,28 +28563,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
         <v>34.18755300444946</v>
@@ -31761,40 +31761,40 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304442</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565521</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,7 +31837,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215734</v>
@@ -31846,19 +31846,19 @@
         <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458551</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710957</v>
@@ -31867,13 +31867,13 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361493</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298632</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
         <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31992,7 +31992,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -32001,31 +32001,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P14" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32074,31 +32074,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32165,7 +32165,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
@@ -32177,19 +32177,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32229,7 +32229,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32238,31 +32238,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P17" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32311,31 +32311,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32402,7 +32402,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
@@ -32414,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443622</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444951</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176654</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961209</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041495</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304449</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565528</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927196</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540896</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130947001</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647502</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446481</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104662</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
-        <v>14.61306122562946</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354898</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354106</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
-        <v>17.25001940386728</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127075</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215737</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622987</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358991</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724854</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.536285481347</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855533</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458555</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.994806871096</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
-        <v>110.895220109512</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.1761272367747</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361502</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1175069441680333</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.497410895081167</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H46" t="n">
-        <v>13.31334413990347</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298637</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
-        <v>105.8669502822385</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K46" t="n">
-        <v>173.9719203557937</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L46" t="n">
-        <v>222.6241616196128</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171323</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263754</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065636</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P46" t="n">
-        <v>181.1050413469076</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235693</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337681</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
-        <v>26.09578805336905</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892256</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351828</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047525</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35257,22 +35257,22 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>365.2844632307155</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303332</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081121</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349819</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490674</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
         <v>415.0406756005179</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560245</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M12" t="n">
-        <v>331.0622756918199</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
@@ -35576,19 +35576,19 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35652,25 +35652,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951457</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>278.7330645958064</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>373.6013019241291</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,19 +35804,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35825,7 +35825,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35889,25 +35889,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081101</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M18" t="n">
-        <v>618.5494866776696</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N18" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>334.8610358541604</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,19 +36041,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36062,7 +36062,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,16 +36120,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005178</v>
@@ -36208,16 +36208,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>406.4618263286133</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
-        <v>287.7526615081892</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36673,13 +36673,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>332.6095128747336</v>
       </c>
       <c r="L27" t="n">
-        <v>609.7603912467498</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
         <v>310.4243770504663</v>
@@ -36691,7 +36691,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36910,25 +36910,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>265.0957540022528</v>
       </c>
       <c r="M30" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O30" t="n">
-        <v>462.3874039146953</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q30" t="n">
         <v>88.01303278507413</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>334.5577682773024</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
@@ -37393,19 +37393,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>563.9097597752163</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,13 +37624,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>481.7210653803921</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980129</v>
@@ -37639,13 +37639,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K41" t="n">
         <v>528.6897561303331</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,10 +37864,10 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>427.3331161036625</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980129</v>
@@ -37876,13 +37876,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415084</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303338</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109081</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221126</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081129</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951482</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109132</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502054</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349123</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490697</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005183</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.257704956025</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M45" t="n">
-        <v>616.5391140644584</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980136</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411089</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714625</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.0130327850745</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556572</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299109</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799289</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
-        <v>274.3098411789729</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.276877805604</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206032</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118011</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187496</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_4_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_4_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3890942.38439761</v>
+        <v>3895881.647246642</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7674126.790167706</v>
+        <v>7674126.790167707</v>
       </c>
     </row>
     <row r="11">
@@ -664,22 +664,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>163.9206648785247</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>276.7799377421434</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>59.66385641544559</v>
+        <v>59.66385641544537</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -901,16 +901,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>82.51147915316503</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>177.7048348993197</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -955,7 +955,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>8.777525990011616</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1113,13 +1113,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>173.9313784350749</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1138,7 +1138,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1180,25 +1180,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>96.3616331761031</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>2.945562993021833</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>25.31590541686252</v>
+        <v>25.31590541686241</v>
       </c>
     </row>
     <row r="11">
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274121</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1536,16 +1536,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -1578,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>138.2083374376479</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>164.4379853673424</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1663,7 +1663,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>2.654169196206531</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1827,13 +1827,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>174.3062600431772</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>183.1796758467005</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2478,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>169.827716759979</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634814</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>115.5269768002176</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2778,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>33.35146980185857</v>
       </c>
     </row>
     <row r="29">
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T31" t="n">
-        <v>139.1537278750038</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -3195,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3322,7 +3322,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3477,10 +3477,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>139.1537278750036</v>
       </c>
     </row>
     <row r="38">
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T43" t="n">
-        <v>206.806426921486</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>224.895256723152</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1606.946621408918</v>
+        <v>609.3508327416157</v>
       </c>
       <c r="C2" t="n">
-        <v>1237.984104468507</v>
+        <v>240.388315801204</v>
       </c>
       <c r="D2" t="n">
-        <v>879.7184058617563</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="E2" t="n">
-        <v>493.9301532635121</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F2" t="n">
-        <v>486.9846525143086</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4333,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V2" t="n">
-        <v>1993.54646147304</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W2" t="n">
-        <v>1993.54646147304</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X2" t="n">
-        <v>1993.54646147304</v>
+        <v>1386.090004781549</v>
       </c>
       <c r="Y2" t="n">
-        <v>1993.54646147304</v>
+        <v>995.9506728057374</v>
       </c>
     </row>
     <row r="3">
@@ -4400,10 +4400,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
         <v>667.8624625746712</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>609.3508327416157</v>
+        <v>885.3850306156796</v>
       </c>
       <c r="C5" t="n">
-        <v>240.388315801204</v>
+        <v>516.422513675268</v>
       </c>
       <c r="D5" t="n">
-        <v>240.388315801204</v>
+        <v>158.1568150685175</v>
       </c>
       <c r="E5" t="n">
-        <v>240.388315801204</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F5" t="n">
-        <v>233.4428150520005</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
         <v>53.94298182036445</v>
@@ -4570,10 +4570,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2443.387305656314</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V5" t="n">
-        <v>2112.324418312743</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W5" t="n">
-        <v>1759.555763042629</v>
+        <v>2035.589960916693</v>
       </c>
       <c r="X5" t="n">
-        <v>1386.090004781549</v>
+        <v>1662.124202655613</v>
       </c>
       <c r="Y5" t="n">
-        <v>995.9506728057374</v>
+        <v>1271.984870679801</v>
       </c>
     </row>
     <row r="6">
@@ -4658,13 +4658,13 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,7 +4701,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>370.7922583306645</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="C7" t="n">
         <v>201.8560754027576</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>719.2627963377356</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>719.2627963377356</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>719.2627963377356</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>719.2627963377356</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>719.2627963377356</v>
       </c>
       <c r="V7" t="n">
-        <v>552.4407231609042</v>
+        <v>719.2627963377356</v>
       </c>
       <c r="W7" t="n">
-        <v>552.4407231609042</v>
+        <v>429.8456263007749</v>
       </c>
       <c r="X7" t="n">
-        <v>552.4407231609042</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="Y7" t="n">
-        <v>552.4407231609042</v>
+        <v>201.8560754027576</v>
       </c>
     </row>
     <row r="8">
@@ -4780,10 +4780,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1591.868758816787</v>
+        <v>1233.603060210037</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="D8" t="n">
         <v>864.6405432696254</v>
@@ -4795,22 +4795,22 @@
         <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4822,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2368.607930856721</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U8" t="n">
-        <v>2368.607930856721</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V8" t="n">
-        <v>2368.607930856721</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W8" t="n">
-        <v>2368.607930856721</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X8" t="n">
-        <v>2368.607930856721</v>
+        <v>2010.34223224997</v>
       </c>
       <c r="Y8" t="n">
-        <v>1978.468598880909</v>
+        <v>1620.202900274159</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4947,64 +4947,64 @@
         <v>201.8560754027576</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Y10" t="n">
         <v>702.55736257324</v>
@@ -5020,25 +5020,25 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805474</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822467</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823787</v>
@@ -5053,7 +5053,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5065,28 +5065,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5108,37 +5108,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G12" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>674.428562457161</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636251</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643587</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.37645130762</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526317</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>822.6075462588844</v>
+        <v>846.3978353108171</v>
       </c>
       <c r="C13" t="n">
-        <v>653.6713633309776</v>
+        <v>677.4616523829102</v>
       </c>
       <c r="D13" t="n">
-        <v>503.5547239186418</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E13" t="n">
-        <v>355.6416303362487</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F13" t="n">
-        <v>208.7516828383384</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H13" t="n">
         <v>208.7516828383384</v>
@@ -5205,10 +5205,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557903</v>
+        <v>1359.311889307753</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557903</v>
+        <v>1135.526474097259</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557903</v>
+        <v>846.3978353108171</v>
       </c>
       <c r="V13" t="n">
-        <v>1332.817295439375</v>
+        <v>846.3978353108171</v>
       </c>
       <c r="W13" t="n">
-        <v>1043.400125402414</v>
+        <v>846.3978353108171</v>
       </c>
       <c r="X13" t="n">
-        <v>1043.400125402414</v>
+        <v>846.3978353108171</v>
       </c>
       <c r="Y13" t="n">
-        <v>822.6075462588844</v>
+        <v>846.3978353108171</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
@@ -5281,49 +5281,49 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5345,13 +5345,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G15" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
         <v>97.21709146028584</v>
@@ -5360,16 +5360,16 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277034</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>563.7235867775516</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M15" t="n">
-        <v>1332.091733170013</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N15" t="n">
-        <v>1661.954360834046</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
         <v>2331.418122136705</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1141.200876391121</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C16" t="n">
-        <v>972.2646934632137</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D16" t="n">
-        <v>822.1480540508779</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E16" t="n">
-        <v>674.2349604684848</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705744</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5442,10 +5442,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557903</v>
+        <v>1185.240178049213</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557903</v>
+        <v>1185.240178049213</v>
       </c>
       <c r="V16" t="n">
-        <v>1498.916270557903</v>
+        <v>1185.240178049213</v>
       </c>
       <c r="W16" t="n">
-        <v>1322.84934122136</v>
+        <v>895.8230080122524</v>
       </c>
       <c r="X16" t="n">
-        <v>1322.84934122136</v>
+        <v>667.8334571142351</v>
       </c>
       <c r="Y16" t="n">
-        <v>1322.84934122136</v>
+        <v>447.040877970705</v>
       </c>
     </row>
     <row r="17">
@@ -5494,40 +5494,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805463</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5536,28 +5536,28 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5582,40 +5582,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>901.6749225845922</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.043068977054</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>1999.905696641086</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5679,10 +5679,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,31 +5691,31 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1313.886294955175</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1090.100879744681</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>1090.100879744681</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>835.416391538794</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W19" t="n">
-        <v>545.9992215018333</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X19" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
         <v>97.21709146028584</v>
@@ -5734,28 +5734,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5770,10 +5770,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5849,10 +5849,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5937,19 +5937,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
         <v>97.21709146028584</v>
@@ -5968,52 +5968,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231264</v>
@@ -6022,16 +6022,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6065,31 +6065,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>634.0455001582217</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>880.8106280646857</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028587</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6177,22 +6177,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347408</v>
+        <v>1327.373122315499</v>
       </c>
       <c r="U25" t="n">
-        <v>986.0022165609664</v>
+        <v>1038.244483529058</v>
       </c>
       <c r="V25" t="n">
-        <v>731.3177283550796</v>
+        <v>783.5599953231707</v>
       </c>
       <c r="W25" t="n">
-        <v>441.900558318119</v>
+        <v>494.1428252862101</v>
       </c>
       <c r="X25" t="n">
-        <v>213.9110074201016</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028587</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="26">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6220,16 +6220,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6244,34 +6244,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6302,31 +6302,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>592.8217113586345</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>1206.718781115523</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6390,10 +6390,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6408,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1382.222354598087</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387592</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011507</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952638</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028587</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6442,40 +6442,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155887</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6496,16 +6496,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6542,28 +6542,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>143.7578250841096</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>292.8275092861694</v>
       </c>
       <c r="L30" t="n">
-        <v>550.2226492899335</v>
+        <v>539.5926371926334</v>
       </c>
       <c r="M30" t="n">
-        <v>857.5427825698952</v>
+        <v>846.9127704725951</v>
       </c>
       <c r="N30" t="n">
-        <v>1661.954360834046</v>
+        <v>1651.324348736746</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6648,7 +6648,7 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T31" t="n">
         <v>1158.436939387592</v>
@@ -6691,10 +6691,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H32" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028562</v>
@@ -6709,19 +6709,19 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6782,25 +6782,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>634.0455001582217</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>880.8106280646857</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,13 +6834,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E34" t="n">
         <v>97.21709146028584</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U34" t="n">
-        <v>786.0822064765186</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V34" t="n">
-        <v>531.3977182706318</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W34" t="n">
-        <v>241.9805482336712</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6949,16 +6949,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -6970,19 +6970,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7034,10 +7034,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7125,19 +7125,19 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1075.21084526296</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U37" t="n">
-        <v>869.3083006011506</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V37" t="n">
-        <v>614.6238123952637</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W37" t="n">
-        <v>325.2066423583032</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028584</v>
+        <v>237.776412546148</v>
       </c>
       <c r="Y37" t="n">
         <v>97.21709146028584</v>
@@ -7174,10 +7174,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7186,7 +7186,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7271,10 +7271,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F40" t="n">
         <v>97.21709146028584</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011506</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952637</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="41">
@@ -7390,46 +7390,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155887</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7499,7 +7499,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
         <v>1558.376451307619</v>
@@ -7508,10 +7508,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7596,22 +7596,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T43" t="n">
-        <v>1090.100879744681</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U43" t="n">
-        <v>1090.100879744681</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>835.416391538794</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>545.9992215018333</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
         <v>97.21709146028584</v>
@@ -7627,46 +7627,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7733,22 +7733,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>1206.718781115523</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>1271.749344574921</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>1017.064856369034</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>727.647686332073</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>499.6581354340557</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951776</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8713,7 +8713,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8780,19 +8780,19 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>306.1147370139961</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776749</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8941,7 +8941,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627438</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -9011,16 +9011,16 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>29.47535963978197</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9175,7 +9175,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119823</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
@@ -9242,31 +9242,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>52.49733361305221</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9646,7 +9646,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9719,7 +9719,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>223.6742649934481</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9956,10 +9956,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>182.0340742867944</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,13 +10190,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>5.100663089359692</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>15.83804904622843</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10430,7 +10430,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>223.6742649934481</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11381,7 +11381,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>288.409182577675</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23424,16 +23424,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23466,25 +23466,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>59.71247254595539</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>87.69965795648557</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>218.8933918621827</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -23715,13 +23715,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>112.2167382934138</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23940,13 +23940,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>14.74113413690279</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24177,7 +24177,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24366,7 +24366,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24417,7 +24417,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>51.71984429841024</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>103.0576765518772</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>82.39383318338567</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>185.2331835502362</v>
       </c>
     </row>
     <row r="29">
@@ -24888,10 +24888,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T31" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25083,7 +25083,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>30.90698584635157</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25125,7 +25125,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25365,10 +25365,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>79.43092547709122</v>
       </c>
     </row>
     <row r="38">
@@ -25560,7 +25560,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>29.89407122271365</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
@@ -25599,7 +25599,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25836,13 +25836,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T43" t="n">
-        <v>14.74113413690327</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26073,13 +26073,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>61.3420956754253</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>654162.2474420607</v>
+        <v>654162.2474420608</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>654162.2474420607</v>
+        <v>654162.247442061</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>654162.2474420607</v>
+        <v>654162.2474420608</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>654162.2474420607</v>
+        <v>654162.2474420608</v>
       </c>
     </row>
     <row r="11">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>654162.2474420607</v>
+        <v>654162.2474420608</v>
       </c>
     </row>
   </sheetData>
@@ -26319,43 +26319,43 @@
         <v>779989.6813710689</v>
       </c>
       <c r="D2" t="n">
-        <v>779989.681371069</v>
+        <v>779989.6813710689</v>
       </c>
       <c r="E2" t="n">
         <v>742955.2135016472</v>
       </c>
       <c r="F2" t="n">
-        <v>742955.2135016472</v>
+        <v>742955.2135016468</v>
       </c>
       <c r="G2" t="n">
-        <v>742955.2135016473</v>
+        <v>742955.2135016476</v>
       </c>
       <c r="H2" t="n">
-        <v>742955.2135016473</v>
+        <v>742955.2135016471</v>
       </c>
       <c r="I2" t="n">
-        <v>742955.2135016471</v>
+        <v>742955.2135016475</v>
       </c>
       <c r="J2" t="n">
-        <v>742955.2135016471</v>
+        <v>742955.2135016476</v>
       </c>
       <c r="K2" t="n">
         <v>742955.2135016473</v>
       </c>
       <c r="L2" t="n">
-        <v>742955.2135016473</v>
+        <v>742955.2135016472</v>
       </c>
       <c r="M2" t="n">
         <v>742955.2135016472</v>
       </c>
       <c r="N2" t="n">
-        <v>742955.213501647</v>
+        <v>742955.2135016473</v>
       </c>
       <c r="O2" t="n">
-        <v>742955.213501647</v>
+        <v>742955.2135016473</v>
       </c>
       <c r="P2" t="n">
-        <v>742955.2135016471</v>
+        <v>742955.2135016473</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,22 +26426,22 @@
         <v>174490.7773218262</v>
       </c>
       <c r="E4" t="n">
+        <v>29303.54555230232</v>
+      </c>
+      <c r="F4" t="n">
         <v>29303.54555230233</v>
       </c>
-      <c r="F4" t="n">
-        <v>29303.54555230231</v>
-      </c>
       <c r="G4" t="n">
-        <v>29303.54555230231</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="H4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="I4" t="n">
-        <v>29303.54555230234</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="J4" t="n">
-        <v>29303.54555230229</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="K4" t="n">
         <v>29303.54555230233</v>
@@ -26475,7 +26475,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871664</v>
@@ -26484,16 +26484,16 @@
         <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871664</v>
@@ -26508,10 +26508,10 @@
         <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-67328.05322871136</v>
+        <v>-67328.05322871127</v>
       </c>
       <c r="C6" t="n">
         <v>522639.8259858333</v>
       </c>
       <c r="D6" t="n">
-        <v>522639.8259858334</v>
+        <v>522639.8259858332</v>
       </c>
       <c r="E6" t="n">
-        <v>95529.71426401049</v>
+        <v>96406.84639775996</v>
       </c>
       <c r="F6" t="n">
-        <v>620689.7507409067</v>
+        <v>621566.8828746558</v>
       </c>
       <c r="G6" t="n">
-        <v>620689.7507409068</v>
+        <v>621566.8828746565</v>
       </c>
       <c r="H6" t="n">
-        <v>620689.7507409069</v>
+        <v>621566.882874656</v>
       </c>
       <c r="I6" t="n">
-        <v>620689.7507409065</v>
+        <v>621566.8828746565</v>
       </c>
       <c r="J6" t="n">
-        <v>444266.5315483136</v>
+        <v>445143.6636820635</v>
       </c>
       <c r="K6" t="n">
-        <v>620689.7507409067</v>
+        <v>621566.8828746562</v>
       </c>
       <c r="L6" t="n">
-        <v>620689.7507409067</v>
+        <v>621566.8828746561</v>
       </c>
       <c r="M6" t="n">
-        <v>485888.7355070694</v>
+        <v>486765.8676408189</v>
       </c>
       <c r="N6" t="n">
-        <v>620689.7507409065</v>
+        <v>621566.8828746562</v>
       </c>
       <c r="O6" t="n">
-        <v>620689.7507409065</v>
+        <v>621566.8828746562</v>
       </c>
       <c r="P6" t="n">
-        <v>620689.7507409065</v>
+        <v>621566.8828746562</v>
       </c>
     </row>
   </sheetData>
@@ -26737,22 +26737,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541002</v>
@@ -26761,7 +26761,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541003</v>
@@ -26776,10 +26776,10 @@
         <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,22 +27384,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>190.7623767421583</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>137.0042322786516</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,28 +27426,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27539,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>107.5829646831822</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27621,16 +27621,16 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>299.4188909190967</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>236.0793351214753</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27675,7 +27675,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>20.34522396490269</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27833,13 +27833,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>78.20626488875308</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27858,7 +27858,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27900,25 +27900,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>120.0866871815547</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>366.7855376854472</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>193.2687479352323</v>
+        <v>193.2687479352324</v>
       </c>
     </row>
     <row r="11">
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31755,7 +31755,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
@@ -31764,31 +31764,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31837,31 +31837,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
@@ -31916,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31928,7 +31928,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
         <v>229.1447054263751</v>
@@ -31940,19 +31940,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31992,7 +31992,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -32001,31 +32001,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32074,31 +32074,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32165,7 +32165,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
@@ -32177,19 +32177,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32402,10 +32402,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32414,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730626</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35415,25 +35415,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>639.309310412009</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975091996</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,19 +35567,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
         <v>236.2373515206029</v>
@@ -35588,7 +35588,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35652,25 +35652,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951457</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>278.7330645958064</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004662</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507416</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,19 +35804,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35825,7 +35825,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,28 +35886,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081101</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>334.8610358541604</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315248</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36217,13 +36217,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36366,7 +36366,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36439,7 +36439,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>374.2497035813873</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
@@ -36454,13 +36454,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,28 +36676,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>332.6095128747336</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,13 +36910,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>47.01084204426638</v>
       </c>
       <c r="K30" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
-        <v>265.0957540022528</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
         <v>310.4243770504663</v>
@@ -36934,7 +36934,7 @@
         <v>88.01303278507413</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37150,7 +37150,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>374.2497035813873</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
@@ -37165,13 +37165,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37314,7 +37314,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37402,13 +37402,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37639,13 +37639,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37779,16 +37779,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37867,22 +37867,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,7 +38019,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38101,25 +38101,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>537.6668875336993</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
